--- a/Config/Translation_occurrenceStatus.xlsx
+++ b/Config/Translation_occurrenceStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Data\SInNS\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Data\SInAS workflow - native and alien\v11\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D53C1-AAC3-458C-9D00-381E85B7B97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECB5E5-5000-42E8-A6E7-183B269A2983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="3024" windowWidth="23040" windowHeight="12120" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>origTerm</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>presence uncertain</t>
+  </si>
+  <si>
+    <t>extinct (post 1500)</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,13 +451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="1025" width="8.5546875"/>
@@ -539,6 +545,38 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Config/Translation_occurrenceStatus.xlsx
+++ b/Config/Translation_occurrenceStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Data\SInAS workflow - native and alien\v11\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\1. Data paper\SInAS-dataset_final_v2\SInAS-workflow_update\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECB5E5-5000-42E8-A6E7-183B269A2983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49575C40-A6CC-470D-BE7C-0568F941CA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>origTerm</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>eradicated</t>
+  </si>
+  <si>
+    <t>not known</t>
+  </si>
+  <si>
+    <t>data deficient</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -504,6 +513,9 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -566,17 +578,33 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
